--- a/dy_qT/expdata/10006.xlsx
+++ b/dy_qT/expdata/10006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10630"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avp5627/GIT/fitpack2/database/dy_qT/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1043522-3874-6849-B97E-CDD64493CB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148AA374-E3B2-1D4E-B153-7B3E079283E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4960" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3920" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CMS13-00y04-norm" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="31">
   <si>
     <t>FiducialCuts</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>1/GeV^3</t>
+  </si>
+  <si>
+    <t>leptons</t>
+  </si>
+  <si>
+    <t>dressed</t>
   </si>
 </sst>
 </file>
@@ -965,15 +971,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="24" width="21.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1046,8 +1055,11 @@
       <c r="X1" t="s">
         <v>22</v>
       </c>
+      <c r="Y1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>SQRT(169000000)</f>
         <v>13000</v>
@@ -1122,8 +1134,11 @@
       <c r="X2" t="s">
         <v>23</v>
       </c>
+      <c r="Y2" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>SQRT(169000000)</f>
         <v>13000</v>
@@ -1197,8 +1212,11 @@
       <c r="X3" t="s">
         <v>23</v>
       </c>
+      <c r="Y3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4">
         <f t="shared" ref="A4:A35" si="0">SQRT(169000000)</f>
         <v>13000</v>
@@ -1272,8 +1290,11 @@
       <c r="X4" t="s">
         <v>23</v>
       </c>
+      <c r="Y4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1347,8 +1368,11 @@
       <c r="X5" t="s">
         <v>23</v>
       </c>
+      <c r="Y5" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1422,8 +1446,11 @@
       <c r="X6" t="s">
         <v>23</v>
       </c>
+      <c r="Y6" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1497,8 +1524,11 @@
       <c r="X7" t="s">
         <v>23</v>
       </c>
+      <c r="Y7" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1572,8 +1602,11 @@
       <c r="X8" t="s">
         <v>23</v>
       </c>
+      <c r="Y8" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1647,8 +1680,11 @@
       <c r="X9" t="s">
         <v>23</v>
       </c>
+      <c r="Y9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1722,8 +1758,11 @@
       <c r="X10" t="s">
         <v>23</v>
       </c>
+      <c r="Y10" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1797,8 +1836,11 @@
       <c r="X11" t="s">
         <v>23</v>
       </c>
+      <c r="Y11" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1872,8 +1914,11 @@
       <c r="X12" t="s">
         <v>23</v>
       </c>
+      <c r="Y12" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -1947,8 +1992,11 @@
       <c r="X13" t="s">
         <v>23</v>
       </c>
+      <c r="Y13" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2022,8 +2070,11 @@
       <c r="X14" t="s">
         <v>23</v>
       </c>
+      <c r="Y14" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2097,8 +2148,11 @@
       <c r="X15" t="s">
         <v>23</v>
       </c>
+      <c r="Y15" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2172,8 +2226,11 @@
       <c r="X16" t="s">
         <v>23</v>
       </c>
+      <c r="Y16" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2247,8 +2304,11 @@
       <c r="X17" t="s">
         <v>23</v>
       </c>
+      <c r="Y17" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2322,8 +2382,11 @@
       <c r="X18" t="s">
         <v>23</v>
       </c>
+      <c r="Y18" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2397,8 +2460,11 @@
       <c r="X19" t="s">
         <v>23</v>
       </c>
+      <c r="Y19" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2472,8 +2538,11 @@
       <c r="X20" t="s">
         <v>23</v>
       </c>
+      <c r="Y20" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2547,8 +2616,11 @@
       <c r="X21" t="s">
         <v>23</v>
       </c>
+      <c r="Y21" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2622,8 +2694,11 @@
       <c r="X22" t="s">
         <v>23</v>
       </c>
+      <c r="Y22" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2697,8 +2772,11 @@
       <c r="X23" t="s">
         <v>23</v>
       </c>
+      <c r="Y23" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2772,8 +2850,11 @@
       <c r="X24" t="s">
         <v>23</v>
       </c>
+      <c r="Y24" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2847,8 +2928,11 @@
       <c r="X25" t="s">
         <v>23</v>
       </c>
+      <c r="Y25" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2922,8 +3006,11 @@
       <c r="X26" t="s">
         <v>23</v>
       </c>
+      <c r="Y26" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -2997,8 +3084,11 @@
       <c r="X27" t="s">
         <v>23</v>
       </c>
+      <c r="Y27" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -3072,8 +3162,11 @@
       <c r="X28" t="s">
         <v>23</v>
       </c>
+      <c r="Y28" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -3147,8 +3240,11 @@
       <c r="X29" t="s">
         <v>23</v>
       </c>
+      <c r="Y29" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -3222,8 +3318,11 @@
       <c r="X30" t="s">
         <v>23</v>
       </c>
+      <c r="Y30" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -3297,8 +3396,11 @@
       <c r="X31" t="s">
         <v>23</v>
       </c>
+      <c r="Y31" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -3372,8 +3474,11 @@
       <c r="X32" t="s">
         <v>23</v>
       </c>
+      <c r="Y32" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -3447,8 +3552,11 @@
       <c r="X33" t="s">
         <v>23</v>
       </c>
+      <c r="Y33" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -3522,8 +3630,11 @@
       <c r="X34" t="s">
         <v>23</v>
       </c>
+      <c r="Y34" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>13000</v>
@@ -3596,6 +3707,9 @@
       </c>
       <c r="X35" t="s">
         <v>23</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
